--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Angptl3</t>
+  </si>
+  <si>
+    <t>Itga5</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Angptl3</t>
-  </si>
-  <si>
-    <t>Itga5</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H2">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I2">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J2">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>1.007336247302</v>
+        <v>35.42237420933579</v>
       </c>
       <c r="R2">
-        <v>9.066026225718</v>
+        <v>318.8013678840221</v>
       </c>
       <c r="S2">
-        <v>0.001238760143984131</v>
+        <v>0.06544504924877495</v>
       </c>
       <c r="T2">
-        <v>0.001399011736834166</v>
+        <v>0.07071145825107221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H3">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I3">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J3">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>1.552166156529333</v>
+        <v>62.82106497143912</v>
       </c>
       <c r="R3">
-        <v>13.969495408764</v>
+        <v>565.389584742952</v>
       </c>
       <c r="S3">
-        <v>0.001908758447538647</v>
+        <v>0.1160658420753953</v>
       </c>
       <c r="T3">
-        <v>0.002155684039284152</v>
+        <v>0.1254057417711163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H4">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I4">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J4">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>0.6731814907136665</v>
+        <v>36.08318007691533</v>
       </c>
       <c r="R4">
-        <v>6.058633416422998</v>
+        <v>324.748620692238</v>
       </c>
       <c r="S4">
-        <v>0.0008278371820704537</v>
+        <v>0.06666592937081448</v>
       </c>
       <c r="T4">
-        <v>0.0009349299293561414</v>
+        <v>0.07203058345259808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H5">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I5">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J5">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>0.3905488259715</v>
+        <v>11.660971710157</v>
       </c>
       <c r="R5">
-        <v>2.343292955829</v>
+        <v>69.96583026094201</v>
       </c>
       <c r="S5">
-        <v>0.0004802729189871455</v>
+        <v>0.021544373715601</v>
       </c>
       <c r="T5">
-        <v>0.0003616021249470812</v>
+        <v>0.01551870971676017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H6">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I6">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J6">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>1.137781365401333</v>
+        <v>31.15517507451622</v>
       </c>
       <c r="R6">
-        <v>10.240032288612</v>
+        <v>280.396575670646</v>
       </c>
       <c r="S6">
-        <v>0.001399173525028993</v>
+        <v>0.05756113226788005</v>
       </c>
       <c r="T6">
-        <v>0.001580176915514542</v>
+        <v>0.06219311694262092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,14 +835,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H7">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I7">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J7">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>40.77007836670267</v>
+        <v>26.835581126659</v>
       </c>
       <c r="R7">
-        <v>366.930705300324</v>
+        <v>241.520230139931</v>
       </c>
       <c r="S7">
-        <v>0.050136534134505</v>
+        <v>0.04958041259670341</v>
       </c>
       <c r="T7">
-        <v>0.05662242205562745</v>
+        <v>0.05357018316352408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H8">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I8">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J8">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
-        <v>62.82106497143913</v>
+        <v>47.592512448244</v>
       </c>
       <c r="R8">
-        <v>565.3895847429521</v>
+        <v>428.332612034196</v>
       </c>
       <c r="S8">
-        <v>0.07725348084880919</v>
+        <v>0.08793013993475814</v>
       </c>
       <c r="T8">
-        <v>0.08724733915895348</v>
+        <v>0.09500593995082027</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H9">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I9">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J9">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>27.24578034883489</v>
+        <v>27.336200011311</v>
       </c>
       <c r="R9">
-        <v>245.212023139514</v>
+        <v>246.025800101799</v>
       </c>
       <c r="S9">
-        <v>0.03350518446872103</v>
+        <v>0.05050533726062618</v>
       </c>
       <c r="T9">
-        <v>0.03783956607271587</v>
+        <v>0.0545695371636983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H10">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I10">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J10">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>15.806744057437</v>
+        <v>8.834217336598501</v>
       </c>
       <c r="R10">
-        <v>94.84046434462202</v>
+        <v>53.005304019591</v>
       </c>
       <c r="S10">
-        <v>0.01943816138549082</v>
+        <v>0.0163217684182133</v>
       </c>
       <c r="T10">
-        <v>0.01463517967425914</v>
+        <v>0.01175679504496426</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H11">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I11">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J11">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>46.04960414740178</v>
+        <v>23.602800401987</v>
       </c>
       <c r="R11">
-        <v>414.446437326616</v>
+        <v>212.425203617883</v>
       </c>
       <c r="S11">
-        <v>0.05662897013468205</v>
+        <v>0.04360764825046461</v>
       </c>
       <c r="T11">
-        <v>0.06395474882526295</v>
+        <v>0.04711678628231594</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H12">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I12">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J12">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>44.32876187036733</v>
+        <v>17.4404918112395</v>
       </c>
       <c r="R12">
-        <v>398.958856833306</v>
+        <v>104.642950867437</v>
       </c>
       <c r="S12">
-        <v>0.05451278417137274</v>
+        <v>0.03222239815897501</v>
       </c>
       <c r="T12">
-        <v>0.06156480351230544</v>
+        <v>0.023210238088513</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H13">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I13">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J13">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>68.30450519408757</v>
+        <v>30.930458323682</v>
       </c>
       <c r="R13">
-        <v>614.7405467467881</v>
+        <v>185.582749942092</v>
       </c>
       <c r="S13">
-        <v>0.08399667828455072</v>
+        <v>0.05714595403226945</v>
       </c>
       <c r="T13">
-        <v>0.09486286699314034</v>
+        <v>0.04116301934884864</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H14">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I14">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J14">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>29.62397320389343</v>
+        <v>17.7658449130455</v>
       </c>
       <c r="R14">
-        <v>266.6157588350409</v>
+        <v>106.595069478273</v>
       </c>
       <c r="S14">
-        <v>0.03642973973161841</v>
+        <v>0.032823508339933</v>
       </c>
       <c r="T14">
-        <v>0.04114245497956625</v>
+        <v>0.02364322604765339</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H15">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I15">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J15">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>17.1864617714405</v>
+        <v>5.74137352906425</v>
       </c>
       <c r="R15">
-        <v>103.118770628643</v>
+        <v>22.965494116257</v>
       </c>
       <c r="S15">
-        <v>0.02113485334771704</v>
+        <v>0.01060754626848793</v>
       </c>
       <c r="T15">
-        <v>0.01591263545963949</v>
+        <v>0.005093841313151846</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H16">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I16">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J16">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>50.06911976264488</v>
+        <v>15.3395018796235</v>
       </c>
       <c r="R16">
-        <v>450.622077863804</v>
+        <v>92.03701127774099</v>
       </c>
       <c r="S16">
-        <v>0.06157192315123546</v>
+        <v>0.02834068800783696</v>
       </c>
       <c r="T16">
-        <v>0.06953714451208015</v>
+        <v>0.02041418869597523</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H17">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I17">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J17">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>46.27582693954</v>
+        <v>28.53341055443756</v>
       </c>
       <c r="R17">
-        <v>277.65496163724</v>
+        <v>256.8006949899381</v>
       </c>
       <c r="S17">
-        <v>0.05690716500686321</v>
+        <v>0.05271725853086731</v>
       </c>
       <c r="T17">
-        <v>0.04284595482625304</v>
+        <v>0.05695945328952721</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H18">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I18">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J18">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>71.30466379358668</v>
+        <v>50.60358822093423</v>
       </c>
       <c r="R18">
-        <v>427.8279827615201</v>
+        <v>455.432293988408</v>
       </c>
       <c r="S18">
-        <v>0.08768608875562707</v>
+        <v>0.09349329053191853</v>
       </c>
       <c r="T18">
-        <v>0.06601970414905232</v>
+        <v>0.1010167611773456</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H19">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I19">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J19">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>30.92515557402333</v>
+        <v>29.06570251784467</v>
       </c>
       <c r="R19">
-        <v>185.55093344414</v>
+        <v>261.591322660602</v>
       </c>
       <c r="S19">
-        <v>0.03802985375956968</v>
+        <v>0.0537007011864622</v>
       </c>
       <c r="T19">
-        <v>0.02863304464446643</v>
+        <v>0.05802203426519549</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H20">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I20">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J20">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>17.941347718305</v>
+        <v>9.393139243103002</v>
       </c>
       <c r="R20">
-        <v>71.76539087322001</v>
+        <v>56.35883545861801</v>
       </c>
       <c r="S20">
-        <v>0.02206316564337209</v>
+        <v>0.01735441155729927</v>
       </c>
       <c r="T20">
-        <v>0.01107438050921532</v>
+        <v>0.01250062214934069</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H21">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I21">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J21">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>52.26832023702666</v>
+        <v>25.09609875507044</v>
       </c>
       <c r="R21">
-        <v>313.60992142216</v>
+        <v>225.864888795634</v>
       </c>
       <c r="S21">
-        <v>0.064276364596276</v>
+        <v>0.04636661024671904</v>
       </c>
       <c r="T21">
-        <v>0.04839429645732083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H22">
-        <v>3.583493</v>
-      </c>
-      <c r="I22">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J22">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>33.211442</v>
-      </c>
-      <c r="N22">
-        <v>99.634326</v>
-      </c>
-      <c r="O22">
-        <v>0.211580186305583</v>
-      </c>
-      <c r="P22">
-        <v>0.2175281749633597</v>
-      </c>
-      <c r="Q22">
-        <v>39.67098997563533</v>
-      </c>
-      <c r="R22">
-        <v>357.038909780718</v>
-      </c>
-      <c r="S22">
-        <v>0.04878494284885788</v>
-      </c>
-      <c r="T22">
-        <v>0.05509598283233957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H23">
-        <v>3.583493</v>
-      </c>
-      <c r="I23">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J23">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>51.17424933333334</v>
-      </c>
-      <c r="N23">
-        <v>153.522748</v>
-      </c>
-      <c r="O23">
-        <v>0.326015871517865</v>
-      </c>
-      <c r="P23">
-        <v>0.3351809012869699</v>
-      </c>
-      <c r="Q23">
-        <v>61.1275214220849</v>
-      </c>
-      <c r="R23">
-        <v>550.1476927987641</v>
-      </c>
-      <c r="S23">
-        <v>0.07517086518133932</v>
-      </c>
-      <c r="T23">
-        <v>0.08489530694653966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H24">
-        <v>3.583493</v>
-      </c>
-      <c r="I24">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J24">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>22.19450366666666</v>
-      </c>
-      <c r="N24">
-        <v>66.58351099999999</v>
-      </c>
-      <c r="O24">
-        <v>0.1413945597650736</v>
-      </c>
-      <c r="P24">
-        <v>0.1453694746776606</v>
-      </c>
-      <c r="Q24">
-        <v>26.5112828426581</v>
-      </c>
-      <c r="R24">
-        <v>238.601545583923</v>
-      </c>
-      <c r="S24">
-        <v>0.03260194462309404</v>
-      </c>
-      <c r="T24">
-        <v>0.03681947905155591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H25">
-        <v>3.583493</v>
-      </c>
-      <c r="I25">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J25">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>12.8762265</v>
-      </c>
-      <c r="N25">
-        <v>25.752453</v>
-      </c>
-      <c r="O25">
-        <v>0.08203059661736112</v>
-      </c>
-      <c r="P25">
-        <v>0.05622443917490541</v>
-      </c>
-      <c r="Q25">
-        <v>15.3806225097215</v>
-      </c>
-      <c r="R25">
-        <v>92.283735058329</v>
-      </c>
-      <c r="S25">
-        <v>0.01891414332179402</v>
-      </c>
-      <c r="T25">
-        <v>0.01424064140684438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H26">
-        <v>3.583493</v>
-      </c>
-      <c r="I26">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J26">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>37.51216133333333</v>
-      </c>
-      <c r="N26">
-        <v>112.536484</v>
-      </c>
-      <c r="O26">
-        <v>0.2389787857941174</v>
-      </c>
-      <c r="P26">
-        <v>0.2456970098971044</v>
-      </c>
-      <c r="Q26">
-        <v>44.80818918429022</v>
-      </c>
-      <c r="R26">
-        <v>403.273702658612</v>
-      </c>
-      <c r="S26">
-        <v>0.05510235438689482</v>
-      </c>
-      <c r="T26">
-        <v>0.06223064318692593</v>
+        <v>0.05009776388495855</v>
       </c>
     </row>
   </sheetData>
